--- a/results/mp/logistic/home-spam/confidence/126/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/126/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,133 +40,157 @@
     <t>name</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>return</t>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>waste</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>useless</t>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>filters</t>
   </si>
   <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>cracked</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>grind</t>
   </si>
   <si>
     <t>lid</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>guess</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>rust</t>
   </si>
   <si>
     <t>received</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
     <t>worked</t>
   </si>
   <si>
     <t>machine</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>hold</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>hold</t>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>water</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>item</t>
+    <t>first</t>
   </si>
   <si>
     <t>get</t>
@@ -178,6 +202,9 @@
     <t>use</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
@@ -199,25 +226,31 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>perfectly</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>ze</t>
   </si>
   <si>
     <t>easy</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>nice</t>
@@ -590,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +631,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +692,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9245283018867925</v>
+        <v>0.9380530973451328</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K3">
-        <v>0.84375</v>
+        <v>0.828125</v>
       </c>
       <c r="L3">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M3">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9203539823008849</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="C4">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,19 +760,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K4">
-        <v>0.7741935483870968</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="L4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -759,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="K5">
-        <v>0.7423728813559322</v>
+        <v>0.7220338983050848</v>
       </c>
       <c r="L5">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M5">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,13 +842,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.898989898989899</v>
+        <v>0.875</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K6">
-        <v>0.7391304347826086</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -851,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -859,13 +892,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8813559322033898</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="C7">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K7">
-        <v>0.6857585139318886</v>
+        <v>0.6377708978328174</v>
       </c>
       <c r="L7">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="M7">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>203</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,13 +942,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.86</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K8">
-        <v>0.6233766233766234</v>
+        <v>0.5367965367965368</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +992,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8076923076923077</v>
+        <v>0.7783783783783784</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K9">
-        <v>0.5757575757575758</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="L9">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1042,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7945945945945946</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K10">
         <v>0.4736842105263158</v>
@@ -1059,7 +1092,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7169811320754716</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C11">
         <v>38</v>
@@ -1077,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K11">
-        <v>0.3714285714285714</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>110</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1142,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7123287671232876</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1160,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="K12">
-        <v>0.3443017656500802</v>
+        <v>0.32</v>
       </c>
       <c r="L12">
-        <v>429</v>
+        <v>56</v>
       </c>
       <c r="M12">
-        <v>429</v>
+        <v>56</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>817</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,28 +1213,28 @@
         <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K13">
-        <v>0.3423423423423423</v>
+        <v>0.2885852090032154</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>359</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>361</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>73</v>
+        <v>885</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,13 +1242,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6764705882352942</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="C14">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1227,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K14">
-        <v>0.1780821917808219</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="L14">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>600</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,13 +1292,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6592592592592592</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="C15">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D15">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1277,31 +1310,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K15">
-        <v>0.08374384236453201</v>
+        <v>0.173972602739726</v>
       </c>
       <c r="L15">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>372</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1309,13 +1342,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6307692307692307</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C16">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1327,31 +1360,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K16">
-        <v>0.06266666666666666</v>
+        <v>0.152317880794702</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="N16">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>703</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1359,13 +1392,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6132075471698113</v>
+        <v>0.6434108527131783</v>
       </c>
       <c r="C17">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D17">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1377,31 +1410,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K17">
-        <v>0.03727506426735219</v>
+        <v>0.09313725490196079</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N17">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>749</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,49 +1442,49 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5977011494252874</v>
+        <v>0.5904761904761905</v>
       </c>
       <c r="C18">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K18">
-        <v>0.03246753246753246</v>
+        <v>0.0534045393858478</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N18">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="O18">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>894</v>
+        <v>709</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1459,13 +1492,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5813953488372093</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1477,7 +1510,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19">
+        <v>0.04498714652956298</v>
+      </c>
+      <c r="L19">
+        <v>35</v>
+      </c>
+      <c r="M19">
+        <v>39</v>
+      </c>
+      <c r="N19">
+        <v>0.9</v>
+      </c>
+      <c r="O19">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>743</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1485,13 +1542,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5769230769230769</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C20">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D20">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1503,7 +1560,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20">
+        <v>0.03017241379310345</v>
+      </c>
+      <c r="L20">
+        <v>28</v>
+      </c>
+      <c r="M20">
+        <v>29</v>
+      </c>
+      <c r="N20">
+        <v>0.97</v>
+      </c>
+      <c r="O20">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>900</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1511,13 +1592,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.527027027027027</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="C21">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1529,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1537,13 +1618,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5070422535211268</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1555,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1563,13 +1644,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.504424778761062</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C23">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="D23">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1581,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1589,13 +1670,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1607,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1615,13 +1696,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4615384615384616</v>
+        <v>0.4690265486725664</v>
       </c>
       <c r="C25">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D25">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1633,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1641,13 +1722,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4423076923076923</v>
+        <v>0.4271844660194175</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1659,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1667,13 +1748,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4368932038834951</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C27">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1685,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1693,13 +1774,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4326923076923077</v>
+        <v>0.391025641025641</v>
       </c>
       <c r="C28">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D28">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1711,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1719,13 +1800,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3184357541899441</v>
+        <v>0.3787878787878788</v>
       </c>
       <c r="C29">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1737,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>122</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1745,13 +1826,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2783505154639175</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C30">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1763,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1771,13 +1852,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2666666666666667</v>
+        <v>0.3557692307692308</v>
       </c>
       <c r="C31">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D31">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1789,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>154</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1797,13 +1878,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2641509433962264</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="C32">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1815,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>273</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1823,13 +1904,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2619047619047619</v>
+        <v>0.3434343434343434</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1841,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1849,13 +1930,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.255</v>
+        <v>0.335195530726257</v>
       </c>
       <c r="C34">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D34">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1867,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1875,13 +1956,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2424242424242424</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1893,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1901,13 +1982,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.24</v>
+        <v>0.2526881720430108</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1919,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>76</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1927,13 +2008,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2251655629139073</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D37">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1945,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>117</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1953,13 +2034,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2233009708737864</v>
+        <v>0.24</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1971,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1979,25 +2060,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1783783783783784</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C39">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D39">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E39">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>152</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2005,13 +2086,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.173469387755102</v>
+        <v>0.2317880794701987</v>
       </c>
       <c r="C40">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D40">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2023,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>243</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2031,13 +2112,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1655172413793103</v>
+        <v>0.23</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D41">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2049,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>121</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2057,13 +2138,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1441048034934498</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="C42">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D42">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2075,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>196</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2083,13 +2164,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1360544217687075</v>
+        <v>0.2137931034482759</v>
       </c>
       <c r="C43">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D43">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2101,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>635</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2109,25 +2190,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1240208877284595</v>
+        <v>0.2006802721088435</v>
       </c>
       <c r="C44">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="D44">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="E44">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>671</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2135,13 +2216,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1137123745819398</v>
+        <v>0.1700680272108843</v>
       </c>
       <c r="C45">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D45">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2153,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>265</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2161,13 +2242,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0975609756097561</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C46">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D46">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2179,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>370</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2187,25 +2268,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06870229007633588</v>
+        <v>0.1528384279475982</v>
       </c>
       <c r="C47">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D47">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E47">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>366</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2213,25 +2294,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.04856895056374675</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="C48">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D48">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E48">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F48">
-        <v>0.9299999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>1097</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2239,25 +2320,259 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.02830188679245283</v>
+        <v>0.1460674157303371</v>
       </c>
       <c r="C49">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D49">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E49">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>1030</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="C50">
+        <v>105</v>
+      </c>
+      <c r="D50">
+        <v>105</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="C51">
+        <v>39</v>
+      </c>
+      <c r="D51">
+        <v>39</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C52">
+        <v>85</v>
+      </c>
+      <c r="D52">
+        <v>87</v>
+      </c>
+      <c r="E52">
+        <v>0.02</v>
+      </c>
+      <c r="F52">
+        <v>0.98</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C53">
+        <v>22</v>
+      </c>
+      <c r="D53">
+        <v>22</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.1073170731707317</v>
+      </c>
+      <c r="C54">
+        <v>44</v>
+      </c>
+      <c r="D54">
+        <v>44</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.07868020304568528</v>
+      </c>
+      <c r="C55">
+        <v>31</v>
+      </c>
+      <c r="D55">
+        <v>31</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.05400696864111498</v>
+      </c>
+      <c r="C56">
+        <v>62</v>
+      </c>
+      <c r="D56">
+        <v>71</v>
+      </c>
+      <c r="E56">
+        <v>0.13</v>
+      </c>
+      <c r="F56">
+        <v>0.87</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.05326876513317191</v>
+      </c>
+      <c r="C57">
+        <v>22</v>
+      </c>
+      <c r="D57">
+        <v>23</v>
+      </c>
+      <c r="E57">
+        <v>0.04</v>
+      </c>
+      <c r="F57">
+        <v>0.96</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.03010348071495767</v>
+      </c>
+      <c r="C58">
+        <v>32</v>
+      </c>
+      <c r="D58">
+        <v>41</v>
+      </c>
+      <c r="E58">
+        <v>0.22</v>
+      </c>
+      <c r="F58">
+        <v>0.78</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
